--- a/yang/数据.xlsx
+++ b/yang/数据.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="18468" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,14 +53,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,48 +509,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,97 +563,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -740,7 +733,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0907668828691339"/>
+          <c:y val="0.0275023138966019"/>
+          <c:w val="0.888248760015261"/>
+          <c:h val="0.792331085548063"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -768,12 +771,13 @@
                 <a:schemeClr val="bg1"/>
               </a:bgClr>
             </a:pattFill>
-            <a:ln>
+            <a:ln w="12700">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d contourW="12700"/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -842,13 +846,22 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:pattFill prst="pct10">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="12700" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d contourW="12700"/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -917,14 +930,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="pct5">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
             <a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -1095,26 +1103,71 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:rPr altLang="en-US" b="0">
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
                   </a:rPr>
-                  <a:t>Camputing Capacity and Cache size</a:t>
+                  <a:t>计算能力</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="0">
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  </a:rPr>
+                  <a:t>/GHz </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr altLang="en-US" b="0">
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  </a:rPr>
+                  <a:t>和</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="0">
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr altLang="en-US" b="0">
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  </a:rPr>
+                  <a:t>缓存大小</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="0">
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  </a:rPr>
+                  <a:t>/GB</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" b="0">
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -1123,8 +1176,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.383803182289865"/>
-              <c:y val="0.883429302623161"/>
+              <c:x val="0.398682999153657"/>
+              <c:y val="0.877082614800868"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1143,10 +1196,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1164,10 +1214,10 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
@@ -1214,26 +1264,35 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:rPr altLang="en-US">
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
                   </a:rPr>
-                  <a:t>Saved Time(s)</a:t>
+                  <a:t>节约时间</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                    <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  </a:rPr>
+                  <a:t>/s</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN">
+                  <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                  <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -1255,7 +1314,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1271,10 +1332,10 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
@@ -1307,10 +1368,10 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
@@ -1330,10 +1391,10 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
@@ -1353,10 +1414,10 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
@@ -1376,10 +1437,10 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+                <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
@@ -1389,10 +1450,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.103078519543411"/>
-          <c:y val="0.0531030070377479"/>
-          <c:w val="0.280439294361813"/>
-          <c:h val="0.0633397312859885"/>
+          <c:x val="0.103109500190767"/>
+          <c:y val="0.0515668385561285"/>
+          <c:w val="0.308088515833651"/>
+          <c:h val="0.063334655559963"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1415,10 +1476,10 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-              <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+              <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -1433,12 +1494,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1449,10 +1505,10 @@
     <a:p>
       <a:pPr>
         <a:defRPr lang="zh-CN">
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-          <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
-          <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+          <a:latin typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+          <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+          <a:cs typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
+          <a:sym typeface="宋体" panose="02010600030101010101" pitchFamily="7" charset="-122"/>
         </a:defRPr>
       </a:pPr>
     </a:p>
@@ -2012,16 +2068,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>89535</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546735</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>574675</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>414655</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>48895</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2029,8 +2085,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8319135" y="2136775"/>
-        <a:ext cx="7343140" cy="4962525"/>
+        <a:off x="3632835" y="504190"/>
+        <a:ext cx="6657340" cy="4802505"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2300,14 +2356,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" t="s">
